--- a/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1075 +453,1557 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B2" t="n">
+        <v>286</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44935</v>
       </c>
-      <c r="B2" t="n">
-        <v>287</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44942</v>
+        <v>44941</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44956</v>
+        <v>44948</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44970</v>
+        <v>44955</v>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
-      </c>
-      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44977</v>
+        <v>44962</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44984</v>
+        <v>44976</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44991</v>
+        <v>44983</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44998</v>
+        <v>44990</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45005</v>
+        <v>44997</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45012</v>
+        <v>45004</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45019</v>
+        <v>45011</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45026</v>
+        <v>45018</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45033</v>
+        <v>45025</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45040</v>
+        <v>45032</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45047</v>
+        <v>45039</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45054</v>
+        <v>45046</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45061</v>
+        <v>45053</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45068</v>
+        <v>45060</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45075</v>
+        <v>45067</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
-      </c>
-      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45082</v>
+        <v>45074</v>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
-      </c>
-      <c r="C22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
-      </c>
-      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
-      </c>
-      <c r="C24" t="n">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
-      </c>
-      <c r="C25" t="n">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45110</v>
+        <v>45102</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
-      </c>
-      <c r="C26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45117</v>
+        <v>45109</v>
       </c>
       <c r="B27" t="n">
-        <v>115</v>
-      </c>
-      <c r="C27" t="n">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45124</v>
+        <v>45116</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
-      </c>
-      <c r="C28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45131</v>
+        <v>45123</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
-      </c>
-      <c r="C29" t="n">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45138</v>
+        <v>45130</v>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
-      </c>
-      <c r="C30" t="n">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45145</v>
+        <v>45137</v>
       </c>
       <c r="B31" t="n">
-        <v>82</v>
-      </c>
-      <c r="C31" t="n">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45152</v>
+        <v>45144</v>
       </c>
       <c r="B32" t="n">
-        <v>114</v>
-      </c>
-      <c r="C32" t="n">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45159</v>
+        <v>45151</v>
       </c>
       <c r="B33" t="n">
-        <v>129</v>
-      </c>
-      <c r="C33" t="n">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45166</v>
+        <v>45158</v>
       </c>
       <c r="B34" t="n">
-        <v>77</v>
-      </c>
-      <c r="C34" t="n">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45173</v>
+        <v>45165</v>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
-      </c>
-      <c r="C35" t="n">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45180</v>
+        <v>45172</v>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
-      </c>
-      <c r="C36" t="n">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45187</v>
+        <v>45179</v>
       </c>
       <c r="B37" t="n">
-        <v>59</v>
-      </c>
-      <c r="C37" t="n">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45194</v>
+        <v>45186</v>
       </c>
       <c r="B38" t="n">
-        <v>64</v>
-      </c>
-      <c r="C38" t="n">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45201</v>
+        <v>45193</v>
       </c>
       <c r="B39" t="n">
-        <v>52</v>
-      </c>
-      <c r="C39" t="n">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45208</v>
+        <v>45200</v>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C40" t="n">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45215</v>
+        <v>45207</v>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
-      </c>
-      <c r="C41" t="n">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45222</v>
+        <v>45214</v>
       </c>
       <c r="B42" t="n">
-        <v>47</v>
-      </c>
-      <c r="C42" t="n">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45229</v>
+        <v>45221</v>
       </c>
       <c r="B43" t="n">
-        <v>103</v>
-      </c>
-      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45236</v>
+        <v>45228</v>
       </c>
       <c r="B44" t="n">
-        <v>164</v>
-      </c>
-      <c r="C44" t="n">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45243</v>
+        <v>45235</v>
       </c>
       <c r="B45" t="n">
-        <v>196</v>
-      </c>
-      <c r="C45" t="n">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45250</v>
+        <v>45242</v>
       </c>
       <c r="B46" t="n">
-        <v>80</v>
-      </c>
-      <c r="C46" t="n">
+        <v>164</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45257</v>
+        <v>45249</v>
       </c>
       <c r="B47" t="n">
-        <v>55</v>
-      </c>
-      <c r="C47" t="n">
+        <v>196</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45264</v>
+        <v>45256</v>
       </c>
       <c r="B48" t="n">
-        <v>95</v>
-      </c>
-      <c r="C48" t="n">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45271</v>
+        <v>45263</v>
       </c>
       <c r="B49" t="n">
-        <v>62</v>
-      </c>
-      <c r="C49" t="n">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45285</v>
+        <v>45270</v>
       </c>
       <c r="B50" t="n">
-        <v>82</v>
-      </c>
-      <c r="C50" t="n">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45292</v>
+        <v>45277</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
-      </c>
-      <c r="C51" t="n">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45299</v>
+        <v>45291</v>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
-      </c>
-      <c r="C52" t="n">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45306</v>
+        <v>45298</v>
       </c>
       <c r="B53" t="n">
-        <v>43</v>
-      </c>
-      <c r="C53" t="n">
+        <v>26</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45313</v>
+        <v>45305</v>
       </c>
       <c r="B54" t="n">
-        <v>32</v>
-      </c>
-      <c r="C54" t="n">
+        <v>22</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45320</v>
+        <v>45312</v>
       </c>
       <c r="B55" t="n">
-        <v>27</v>
-      </c>
-      <c r="C55" t="n">
+        <v>43</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45341</v>
+        <v>45319</v>
       </c>
       <c r="B56" t="n">
-        <v>38</v>
-      </c>
-      <c r="C56" t="n">
+        <v>32</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45362</v>
+        <v>45326</v>
       </c>
       <c r="B57" t="n">
-        <v>34</v>
-      </c>
-      <c r="C57" t="n">
-        <v>136</v>
+        <v>27</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45369</v>
+        <v>45347</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
-      </c>
-      <c r="C58" t="n">
+        <v>38</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45376</v>
+        <v>45368</v>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
-      </c>
-      <c r="C59" t="n">
+        <v>34</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
-      </c>
-      <c r="C60" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45390</v>
+        <v>45382</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45397</v>
+        <v>45389</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45404</v>
+        <v>45396</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45411</v>
+        <v>45403</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45418</v>
+        <v>45410</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45425</v>
+        <v>45417</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45432</v>
+        <v>45417</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
-      </c>
-      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45439</v>
+        <v>45424</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
-      </c>
-      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45446</v>
+        <v>45431</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
-      </c>
-      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45453</v>
+        <v>45438</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
+        <v>6</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45460</v>
+        <v>45445</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45467</v>
+        <v>45452</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45474</v>
+        <v>45459</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45481</v>
+        <v>45466</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45488</v>
+        <v>45473</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45495</v>
+        <v>45480</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45502</v>
+        <v>45487</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45509</v>
+        <v>45494</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45516</v>
+        <v>45501</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45523</v>
+        <v>45508</v>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45530</v>
+        <v>45515</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45537</v>
+        <v>45522</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45544</v>
+        <v>45529</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45551</v>
+        <v>45536</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45558</v>
+        <v>45543</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45565</v>
+        <v>45550</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45572</v>
+        <v>45557</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45579</v>
+        <v>45564</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45586</v>
+        <v>45571</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45593</v>
+        <v>45578</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45600</v>
+        <v>45585</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45607</v>
+        <v>45592</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45614</v>
+        <v>45599</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45621</v>
+        <v>45606</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45628</v>
+        <v>45613</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45635</v>
+        <v>45620</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45642</v>
+        <v>45627</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B98" t="n">
-        <v>1</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B3" t="n">
+        <v>136</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.555555555555558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>280</v>
+      </c>
+      <c r="B2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" t="n">
+        <v>144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1412 +453,1074 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44941</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>286</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D2" t="n">
+        <v>287</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44941</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44948</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44948</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44955</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D6" t="n">
+        <v>86</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44962</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44976</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44983</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44990</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44997</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45004</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45011</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45018</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45025</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45032</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45039</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45046</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45053</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45060</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45067</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45074</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C22" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45081</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45088</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45095</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45102</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45109</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45116</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D28" t="n">
+        <v>70</v>
+      </c>
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45123</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>115</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45130</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C30" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45137</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="C31" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45144</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D32" t="n">
+        <v>114</v>
+      </c>
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45151</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>82</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D33" t="n">
+        <v>129</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45158</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>114</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D34" t="n">
+        <v>77</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45165</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C35" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45172</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>77</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45179</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45186</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>57</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C38" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45193</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>59</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45200</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>64</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45207</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45214</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45221</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45228</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="C44" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45235</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+        <v>196</v>
+      </c>
+      <c r="C45" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45242</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>164</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="C46" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45249</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>196</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C47" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45256</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>80</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45263</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D49" t="n">
+        <v>62</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45270</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>95</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D50" t="n">
+        <v>82</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45277</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>62</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D51" t="n">
+        <v>26</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45291</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>82</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D52" t="n">
+        <v>22</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45298</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D53" t="n">
+        <v>43</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45305</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>22</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D54" t="n">
+        <v>32</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45312</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>43</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D55" t="n">
+        <v>27</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45319</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>32</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D56" t="n">
+        <v>38</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45326</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="C57" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45347</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>38</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45368</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>34</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D59" t="n">
+        <v>11</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45375</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45382</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45389</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45396</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45403</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45410</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45417</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45417</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45424</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45431</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45438</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45445</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45452</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45459</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45466</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45473</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45480</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45487</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45494</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45501</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45508</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45515</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45522</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45529</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45536</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45543</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45550</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45557</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45564</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45571</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45578</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45585</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45592</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45599</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45606</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45613</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45620</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45627</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45634</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B101" t="n">
         <v>1</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,7 +1535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,10 +1562,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1911,12 +1573,331 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66.66666666666667</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>224</v>
+      </c>
+      <c r="C13" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-89.28571428571429</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>166.6666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>80</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>304</v>
+      </c>
+      <c r="C19" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-94.73684210526316</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>344</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-95.34883720930233</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>200</v>
+      </c>
+      <c r="C28" t="n">
+        <v>316.6666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>352</v>
+      </c>
+      <c r="C29" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-97.72727272727273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>144</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>136</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C32" t="n">
         <v>-5.555555555555558</v>
       </c>
     </row>
@@ -1963,16 +1944,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>280</v>
+        <v>2776</v>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>89.54838709677419</v>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +1984,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>128</v>
+        <v>158.6064516129032</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,6 +1227,14 @@
       </c>
       <c r="B98" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG102"/>
+  <dimension ref="A1:AG94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1535,7 +1543,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1TYWU3ZV</t>
+          <t>8B53V9PV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1603,7 +1611,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T3" s="2" t="n">
@@ -1652,7 +1660,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8B53V9PV</t>
+          <t>1TYWU3ZV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1720,7 +1728,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T4" s="2" t="n">
@@ -2588,7 +2596,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5F8815TI</t>
+          <t>35N54CHG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2656,7 +2664,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
@@ -2689,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>45036</v>
+        <v>45044</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -2705,7 +2713,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2VDTN3SC</t>
+          <t>5F8815TI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2773,7 +2781,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T13" s="2" t="n">
@@ -2806,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>45037</v>
+        <v>45036</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2822,7 +2830,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7DJZJX6C</t>
+          <t>74B7JDVF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2883,14 +2891,14 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>TEB9</t>
         </is>
       </c>
       <c r="T14" s="2" t="n">
@@ -2920,10 +2928,10 @@
         <v>1640</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -2939,7 +2947,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>35N54CHG</t>
+          <t>7DJZJX6C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3007,7 +3015,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T15" s="2" t="n">
@@ -3040,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2" t="n">
-        <v>45044</v>
+        <v>45036</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -3056,7 +3064,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>74B7JDVF</t>
+          <t>2VDTN3SC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3117,14 +3125,14 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>TEB9</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T16" s="2" t="n">
@@ -3154,7 +3162,7 @@
         <v>1640</v>
       </c>
       <c r="AB16" t="n">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="2" t="n">
         <v>45037</v>
@@ -4460,7 +4468,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4ATW7W4Q</t>
+          <t>71URKRJM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4528,7 +4536,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T28" s="2" t="n">
@@ -4577,7 +4585,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7X69DJTH</t>
+          <t>2X8URRYF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4626,16 +4634,16 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -4645,7 +4653,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>MQJ1</t>
         </is>
       </c>
       <c r="T29" s="2" t="n">
@@ -4666,13 +4674,13 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>1640</v>
+        <v>9840</v>
       </c>
       <c r="Z29" t="n">
-        <v>1640</v>
+        <v>9840</v>
       </c>
       <c r="AA29" t="n">
-        <v>1640</v>
+        <v>9840</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -4694,7 +4702,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7EIBNR3K</t>
+          <t>4ATW7W4Q</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4743,16 +4751,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N30" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -4762,7 +4770,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>FTW1</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
@@ -4783,13 +4791,13 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>3280</v>
+        <v>4920</v>
       </c>
       <c r="Z30" t="n">
-        <v>3280</v>
+        <v>4920</v>
       </c>
       <c r="AA30" t="n">
-        <v>3280</v>
+        <v>4920</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -4811,7 +4819,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>71URKRJM</t>
+          <t>4VI1YVZC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4879,7 +4887,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>ABE8</t>
         </is>
       </c>
       <c r="T31" s="2" t="n">
@@ -4928,7 +4936,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4VI1YVZC</t>
+          <t>7EIBNR3K</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4977,16 +4985,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N32" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -4996,7 +5004,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>ABE8</t>
+          <t>FTW1</t>
         </is>
       </c>
       <c r="T32" s="2" t="n">
@@ -5017,13 +5025,13 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>4920</v>
+        <v>3280</v>
       </c>
       <c r="Z32" t="n">
-        <v>4920</v>
+        <v>3280</v>
       </c>
       <c r="AA32" t="n">
-        <v>4920</v>
+        <v>3280</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -5045,7 +5053,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2X8URRYF</t>
+          <t>7X69DJTH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5094,16 +5102,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="N33" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -5113,7 +5121,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>MQJ1</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T33" s="2" t="n">
@@ -5134,13 +5142,13 @@
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>9840</v>
+        <v>1640</v>
       </c>
       <c r="Z33" t="n">
-        <v>9840</v>
+        <v>1640</v>
       </c>
       <c r="AA33" t="n">
-        <v>9840</v>
+        <v>1640</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -5513,7 +5521,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>86F3MF6J</t>
+          <t>34ON72AT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5562,16 +5570,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N37" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -5581,7 +5589,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T37" s="2" t="n">
@@ -5602,13 +5610,13 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>3280</v>
+        <v>9840</v>
       </c>
       <c r="Z37" t="n">
-        <v>3280</v>
+        <v>9840</v>
       </c>
       <c r="AA37" t="n">
-        <v>3280</v>
+        <v>9840</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -5630,7 +5638,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>34ON72AT</t>
+          <t>86F3MF6J</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5679,16 +5687,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N38" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -5698,7 +5706,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T38" s="2" t="n">
@@ -5719,13 +5727,13 @@
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>9840</v>
+        <v>3280</v>
       </c>
       <c r="Z38" t="n">
-        <v>9840</v>
+        <v>3280</v>
       </c>
       <c r="AA38" t="n">
-        <v>9840</v>
+        <v>3280</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -6215,7 +6223,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1DRT96BM</t>
+          <t>379PR7XC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6264,26 +6272,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N43" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T43" s="2" t="n">
@@ -6304,16 +6312,16 @@
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>4920</v>
+        <v>11480</v>
       </c>
       <c r="Z43" t="n">
-        <v>4920</v>
+        <v>11480</v>
       </c>
       <c r="AA43" t="n">
-        <v>4715</v>
+        <v>11480</v>
       </c>
       <c r="AB43" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="2" t="n">
         <v>45146</v>
@@ -6332,7 +6340,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>379PR7XC</t>
+          <t>1DRT96BM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6381,26 +6389,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N44" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T44" s="2" t="n">
@@ -6421,16 +6429,16 @@
         </is>
       </c>
       <c r="Y44" t="n">
-        <v>11480</v>
+        <v>4920</v>
       </c>
       <c r="Z44" t="n">
-        <v>11480</v>
+        <v>4920</v>
       </c>
       <c r="AA44" t="n">
-        <v>11480</v>
+        <v>4715</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AC44" s="2" t="n">
         <v>45146</v>
@@ -6566,7 +6574,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32E7I8CX</t>
+          <t>1NL16ZFT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6634,7 +6642,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T46" s="2" t="n">
@@ -6683,7 +6691,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1NL16ZFT</t>
+          <t>35MI4KBY</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6732,16 +6740,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="N47" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -6751,7 +6759,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>ABE8</t>
         </is>
       </c>
       <c r="T47" s="2" t="n">
@@ -6772,13 +6780,13 @@
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>9840</v>
+        <v>1640</v>
       </c>
       <c r="Z47" t="n">
-        <v>9840</v>
+        <v>1640</v>
       </c>
       <c r="AA47" t="n">
-        <v>9840</v>
+        <v>1640</v>
       </c>
       <c r="AB47" t="n">
         <v>0</v>
@@ -6800,7 +6808,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>35MI4KBY</t>
+          <t>32E7I8CX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6849,16 +6857,16 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N48" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -6868,7 +6876,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>ABE8</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T48" s="2" t="n">
@@ -6889,13 +6897,13 @@
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>1640</v>
+        <v>9840</v>
       </c>
       <c r="Z48" t="n">
-        <v>1640</v>
+        <v>9840</v>
       </c>
       <c r="AA48" t="n">
-        <v>1640</v>
+        <v>9840</v>
       </c>
       <c r="AB48" t="n">
         <v>0</v>
@@ -7034,7 +7042,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8NP8EXOK</t>
+          <t>8D2VE6AB</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7083,26 +7091,26 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N50" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>TEB9</t>
         </is>
       </c>
       <c r="T50" s="2" t="n">
@@ -7123,16 +7131,16 @@
         </is>
       </c>
       <c r="Y50" t="n">
-        <v>4920</v>
+        <v>9840</v>
       </c>
       <c r="Z50" t="n">
-        <v>4920</v>
+        <v>9840</v>
       </c>
       <c r="AA50" t="n">
-        <v>4920</v>
+        <v>9840</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AC50" s="2" t="n">
         <v>45148</v>
@@ -7268,7 +7276,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8D2VE6AB</t>
+          <t>8NP8EXOK</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7317,26 +7325,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N52" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>TEB9</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T52" s="2" t="n">
@@ -7357,16 +7365,16 @@
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>9840</v>
+        <v>4920</v>
       </c>
       <c r="Z52" t="n">
-        <v>9840</v>
+        <v>4920</v>
       </c>
       <c r="AA52" t="n">
-        <v>9840</v>
+        <v>4920</v>
       </c>
       <c r="AB52" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="2" t="n">
         <v>45148</v>
@@ -7385,7 +7393,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2A4UWKAM</t>
+          <t>6ZLXT7TM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7453,7 +7461,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T53" s="2" t="n">
@@ -7619,7 +7627,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6ZLXT7TM</t>
+          <t>2A4UWKAM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7687,7 +7695,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T55" s="2" t="n">
@@ -7736,7 +7744,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>58VEMGRF</t>
+          <t>5J7YIGPL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7785,16 +7793,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N56" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -7804,7 +7812,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>SMF3</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T56" s="2" t="n">
@@ -7825,13 +7833,13 @@
         </is>
       </c>
       <c r="Y56" t="n">
-        <v>1640</v>
+        <v>6560</v>
       </c>
       <c r="Z56" t="n">
-        <v>1640</v>
+        <v>6560</v>
       </c>
       <c r="AA56" t="n">
-        <v>1640</v>
+        <v>6560</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
@@ -7853,7 +7861,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5J7YIGPL</t>
+          <t>5SRJNSGL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7902,26 +7910,26 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N57" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T57" s="2" t="n">
@@ -7942,13 +7950,13 @@
         </is>
       </c>
       <c r="Y57" t="n">
-        <v>6560</v>
+        <v>8200</v>
       </c>
       <c r="Z57" t="n">
-        <v>6560</v>
+        <v>8200</v>
       </c>
       <c r="AA57" t="n">
-        <v>6560</v>
+        <v>7995</v>
       </c>
       <c r="AB57" t="n">
         <v>0</v>
@@ -7970,7 +7978,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5SRJNSGL</t>
+          <t>5YBTH51E</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8019,26 +8027,26 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="N58" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T58" s="2" t="n">
@@ -8059,13 +8067,13 @@
         </is>
       </c>
       <c r="Y58" t="n">
-        <v>8200</v>
+        <v>1640</v>
       </c>
       <c r="Z58" t="n">
-        <v>8200</v>
+        <v>1640</v>
       </c>
       <c r="AA58" t="n">
-        <v>7995</v>
+        <v>1640</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
@@ -8087,7 +8095,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5YBTH51E</t>
+          <t>6LG31VEL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8136,26 +8144,26 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="N59" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T59" s="2" t="n">
@@ -8176,13 +8184,13 @@
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>1640</v>
+        <v>18040</v>
       </c>
       <c r="Z59" t="n">
-        <v>1640</v>
+        <v>18040</v>
       </c>
       <c r="AA59" t="n">
-        <v>1640</v>
+        <v>16400</v>
       </c>
       <c r="AB59" t="n">
         <v>0</v>
@@ -8204,7 +8212,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6LG31VEL</t>
+          <t>82Z68B3B</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8253,16 +8261,16 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="N60" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -8272,7 +8280,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>FTW1</t>
         </is>
       </c>
       <c r="T60" s="2" t="n">
@@ -8293,13 +8301,13 @@
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>18040</v>
+        <v>4920</v>
       </c>
       <c r="Z60" t="n">
-        <v>18040</v>
+        <v>4920</v>
       </c>
       <c r="AA60" t="n">
-        <v>16400</v>
+        <v>3280</v>
       </c>
       <c r="AB60" t="n">
         <v>0</v>
@@ -8438,7 +8446,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8DMI93HK</t>
+          <t>58VEMGRF</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8487,16 +8495,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N62" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -8506,7 +8514,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>SMF3</t>
         </is>
       </c>
       <c r="T62" s="2" t="n">
@@ -8527,13 +8535,13 @@
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>6560</v>
+        <v>1640</v>
       </c>
       <c r="Z62" t="n">
-        <v>6560</v>
+        <v>1640</v>
       </c>
       <c r="AA62" t="n">
-        <v>6560</v>
+        <v>1640</v>
       </c>
       <c r="AB62" t="n">
         <v>0</v>
@@ -8789,7 +8797,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>82Z68B3B</t>
+          <t>8DMI93HK</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8838,26 +8846,26 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N65" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>FTW1</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T65" s="2" t="n">
@@ -8878,13 +8886,13 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>4920</v>
+        <v>6560</v>
       </c>
       <c r="Z65" t="n">
-        <v>4920</v>
+        <v>6560</v>
       </c>
       <c r="AA65" t="n">
-        <v>3280</v>
+        <v>6560</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
@@ -9140,7 +9148,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6MGK8ECB</t>
+          <t>16UWQOCW</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9189,26 +9197,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="N68" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>RDG1</t>
+          <t>DAL2</t>
         </is>
       </c>
       <c r="T68" s="2" t="n">
@@ -9229,13 +9237,13 @@
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>4920</v>
+        <v>1640</v>
       </c>
       <c r="Z68" t="n">
-        <v>4920</v>
+        <v>1640</v>
       </c>
       <c r="AA68" t="n">
-        <v>4715</v>
+        <v>1640</v>
       </c>
       <c r="AB68" t="n">
         <v>0</v>
@@ -9257,7 +9265,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8IRFTUIR</t>
+          <t>6MGK8ECB</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9306,26 +9314,26 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="N69" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>RDG1</t>
         </is>
       </c>
       <c r="T69" s="2" t="n">
@@ -9346,19 +9354,19 @@
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>18040</v>
+        <v>4920</v>
       </c>
       <c r="Z69" t="n">
-        <v>18040</v>
+        <v>4920</v>
       </c>
       <c r="AA69" t="n">
-        <v>18040</v>
+        <v>4715</v>
       </c>
       <c r="AB69" t="n">
         <v>0</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>45195</v>
+        <v>45209</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -9374,7 +9382,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8JU7PB6A</t>
+          <t>8IRFTUIR</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9423,16 +9431,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="N70" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -9442,7 +9450,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T70" s="2" t="n">
@@ -9463,13 +9471,13 @@
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>27880</v>
+        <v>18040</v>
       </c>
       <c r="Z70" t="n">
-        <v>27880</v>
+        <v>18040</v>
       </c>
       <c r="AA70" t="n">
-        <v>27880</v>
+        <v>18040</v>
       </c>
       <c r="AB70" t="n">
         <v>0</v>
@@ -9491,7 +9499,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8PP9NF7W</t>
+          <t>8JU7PB6A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9540,16 +9548,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="N71" t="n">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -9559,7 +9567,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T71" s="2" t="n">
@@ -9580,13 +9588,13 @@
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>16400</v>
+        <v>27880</v>
       </c>
       <c r="Z71" t="n">
-        <v>16400</v>
+        <v>27880</v>
       </c>
       <c r="AA71" t="n">
-        <v>16400</v>
+        <v>27880</v>
       </c>
       <c r="AB71" t="n">
         <v>0</v>
@@ -9608,7 +9616,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16UWQOCW</t>
+          <t>8PP9NF7W</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9657,16 +9665,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -9676,7 +9684,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>DAL2</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T72" s="2" t="n">
@@ -9697,19 +9705,19 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>1640</v>
+        <v>16400</v>
       </c>
       <c r="Z72" t="n">
-        <v>1640</v>
+        <v>16400</v>
       </c>
       <c r="AA72" t="n">
-        <v>1640</v>
+        <v>16400</v>
       </c>
       <c r="AB72" t="n">
         <v>0</v>
       </c>
       <c r="AC72" s="2" t="n">
-        <v>45209</v>
+        <v>45195</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -9725,7 +9733,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>79IMABND</t>
+          <t>7S18BF8X</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9793,7 +9801,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T73" s="2" t="n">
@@ -9842,7 +9850,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7S18BF8X</t>
+          <t>79IMABND</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9910,7 +9918,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T74" s="2" t="n">
@@ -9959,7 +9967,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5OAALWVB</t>
+          <t>5BBYE5VA</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10027,7 +10035,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T75" s="2" t="n">
@@ -10076,7 +10084,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5BBYE5VA</t>
+          <t>5OAALWVB</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -10144,7 +10152,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T76" s="2" t="n">
@@ -10193,7 +10201,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4I8MNQKC</t>
+          <t>2QOYI3ML</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10254,14 +10262,14 @@
         <v>8</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>XPH3</t>
         </is>
       </c>
       <c r="T77" s="2" t="n">
@@ -10291,7 +10299,7 @@
         <v>1640</v>
       </c>
       <c r="AB77" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="AC77" s="2" t="n">
         <v>45223</v>
@@ -10310,7 +10318,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2Z6RRYPC</t>
+          <t>2DFV5J6H</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10365,20 +10373,20 @@
         <v>8</v>
       </c>
       <c r="O78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
         <v>8</v>
       </c>
       <c r="Q78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>MDW4</t>
+          <t>BNA3</t>
         </is>
       </c>
       <c r="T78" s="2" t="n">
@@ -10408,10 +10416,10 @@
         <v>1640</v>
       </c>
       <c r="AB78" t="n">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="2" t="n">
-        <v>45239</v>
+        <v>45236</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
@@ -10427,7 +10435,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2DFV5J6H</t>
+          <t>2Z6RRYPC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -10482,20 +10490,20 @@
         <v>8</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P79" t="n">
         <v>8</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>BNA3</t>
+          <t>MDW4</t>
         </is>
       </c>
       <c r="T79" s="2" t="n">
@@ -10525,10 +10533,10 @@
         <v>1640</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="AC79" s="2" t="n">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
@@ -10544,7 +10552,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>193SGKJP</t>
+          <t>4I8MNQKC</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10612,7 +10620,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T80" s="2" t="n">
@@ -10661,7 +10669,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2QOYI3ML</t>
+          <t>193SGKJP</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -10722,14 +10730,14 @@
         <v>8</v>
       </c>
       <c r="Q81" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>XPH3</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T81" s="2" t="n">
@@ -10759,7 +10767,7 @@
         <v>1640</v>
       </c>
       <c r="AB81" t="n">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="2" t="n">
         <v>45223</v>
@@ -10895,7 +10903,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5BMWZ9JX</t>
+          <t>2URCHG1H</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -10963,7 +10971,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>XPH3</t>
         </is>
       </c>
       <c r="T83" s="2" t="n">
@@ -11129,7 +11137,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2URCHG1H</t>
+          <t>5BMWZ9JX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -11197,7 +11205,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>XPH3</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T85" s="2" t="n">
@@ -11480,7 +11488,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>65NUODDT</t>
+          <t>4JORIPDD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -11529,26 +11537,26 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N88" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="O88" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="P88" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="Q88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T88" s="2" t="n">
@@ -11569,16 +11577,16 @@
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>18040</v>
+        <v>14760</v>
       </c>
       <c r="Z88" t="n">
-        <v>18040</v>
+        <v>14760</v>
       </c>
       <c r="AA88" t="n">
-        <v>17425</v>
+        <v>14760</v>
       </c>
       <c r="AB88" t="n">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="2" t="n">
         <v>45253</v>
@@ -11597,7 +11605,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6QBZGD9F</t>
+          <t>4CAQ49XV</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11646,16 +11654,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N89" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O89" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P89" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -11665,7 +11673,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T89" s="2" t="n">
@@ -11686,13 +11694,13 @@
         </is>
       </c>
       <c r="Y89" t="n">
-        <v>4920</v>
+        <v>3280</v>
       </c>
       <c r="Z89" t="n">
-        <v>4920</v>
+        <v>3280</v>
       </c>
       <c r="AA89" t="n">
-        <v>4920</v>
+        <v>3485</v>
       </c>
       <c r="AB89" t="n">
         <v>0</v>
@@ -11714,7 +11722,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4CAQ49XV</t>
+          <t>65NUODDT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -11763,26 +11771,26 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="N90" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O90" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="P90" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T90" s="2" t="n">
@@ -11803,16 +11811,16 @@
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>3280</v>
+        <v>18040</v>
       </c>
       <c r="Z90" t="n">
-        <v>3280</v>
+        <v>18040</v>
       </c>
       <c r="AA90" t="n">
-        <v>3485</v>
+        <v>17425</v>
       </c>
       <c r="AB90" t="n">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="AC90" s="2" t="n">
         <v>45253</v>
@@ -11831,7 +11839,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4JORIPDD</t>
+          <t>6QBZGD9F</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11880,16 +11888,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="N91" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="O91" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="P91" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -11899,7 +11907,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T91" s="2" t="n">
@@ -11920,13 +11928,13 @@
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>14760</v>
+        <v>4920</v>
       </c>
       <c r="Z91" t="n">
-        <v>14760</v>
+        <v>4920</v>
       </c>
       <c r="AA91" t="n">
-        <v>14760</v>
+        <v>4920</v>
       </c>
       <c r="AB91" t="n">
         <v>0</v>
@@ -11948,7 +11956,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>26U93EEY</t>
+          <t>8KFCZBBM</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11997,26 +12005,26 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="N92" t="n">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="O92" t="n">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="P92" t="n">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="Q92" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T92" s="2" t="n">
@@ -12037,16 +12045,16 @@
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>60680</v>
+        <v>11480</v>
       </c>
       <c r="Z92" t="n">
-        <v>60680</v>
+        <v>11480</v>
       </c>
       <c r="AA92" t="n">
-        <v>61500</v>
+        <v>11480</v>
       </c>
       <c r="AB92" t="n">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="AC92" s="2" t="n">
         <v>45258</v>
@@ -12065,7 +12073,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>8KFCZBBM</t>
+          <t>26U93EEY</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12114,26 +12122,26 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="N93" t="n">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="O93" t="n">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="P93" t="n">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T93" s="2" t="n">
@@ -12154,16 +12162,16 @@
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>11480</v>
+        <v>60680</v>
       </c>
       <c r="Z93" t="n">
-        <v>11480</v>
+        <v>60680</v>
       </c>
       <c r="AA93" t="n">
-        <v>11480</v>
+        <v>61500</v>
       </c>
       <c r="AB93" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="AC93" s="2" t="n">
         <v>45258</v>
@@ -12294,942 +12302,6 @@
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="n">
         <v>93</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>3GCRTZZA</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>8</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T95" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U95" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V95" t="n">
-        <v>1</v>
-      </c>
-      <c r="W95" t="n">
-        <v>205</v>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y95" t="n">
-        <v>1640</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD95" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>8ZFZ9LFK</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>32</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>LAX9</t>
-        </is>
-      </c>
-      <c r="T96" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U96" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V96" t="n">
-        <v>1</v>
-      </c>
-      <c r="W96" t="n">
-        <v>205</v>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y96" t="n">
-        <v>6560</v>
-      </c>
-      <c r="Z96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>8VQH2DPG</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>88</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T97" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U97" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V97" t="n">
-        <v>1</v>
-      </c>
-      <c r="W97" t="n">
-        <v>205</v>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y97" t="n">
-        <v>18040</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>8IC2153Z</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>16</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>ONT8</t>
-        </is>
-      </c>
-      <c r="T98" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="U98" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="V98" t="n">
-        <v>1</v>
-      </c>
-      <c r="W98" t="n">
-        <v>205</v>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y98" t="n">
-        <v>3280</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>3T29EG9V</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>48</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>LAX9</t>
-        </is>
-      </c>
-      <c r="T99" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U99" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V99" t="n">
-        <v>1</v>
-      </c>
-      <c r="W99" t="n">
-        <v>205</v>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y99" t="n">
-        <v>9840</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>63ZWXWMM</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>16</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>ONT8</t>
-        </is>
-      </c>
-      <c r="T100" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U100" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V100" t="n">
-        <v>1</v>
-      </c>
-      <c r="W100" t="n">
-        <v>205</v>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y100" t="n">
-        <v>3280</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>6QTLGSTQ</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>8</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T101" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U101" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V101" t="n">
-        <v>1</v>
-      </c>
-      <c r="W101" t="n">
-        <v>205</v>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y101" t="n">
-        <v>1640</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD101" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>3SFP4VCP</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>GIGABYTE Z790 UD AX (LGA 1700/ Intel/ Z790/ ATX/DDR5/ Triple M.2/ PCIe 5.0/ USB 3.2 Gen2X2 Type-C/Intel Wi-Fi 6E/ 2.5GbE LAN/PCIe EZ-Latch/Multi-Key/Motherboard)</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>B083R7T5P4</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Z790 UD AX</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>64</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T102" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U102" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V102" t="n">
-        <v>1</v>
-      </c>
-      <c r="W102" t="n">
-        <v>205</v>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y102" t="n">
-        <v>13120</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD102" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="n">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -13243,7 +12315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13793,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -13804,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
@@ -13826,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -13837,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -13859,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -13870,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -13958,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65">
@@ -13969,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -14035,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -14046,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73">
@@ -14068,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -14079,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76">
@@ -14090,7 +13162,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -14101,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
@@ -14112,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
@@ -14134,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -14145,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -14244,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -14255,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
@@ -14266,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -14277,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94">
@@ -14288,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -14299,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96">
@@ -14310,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -14321,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -14332,7 +13404,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
@@ -14343,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -14387,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
@@ -14398,7 +13470,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
@@ -14420,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>136</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -14431,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -14442,7 +13514,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
@@ -14673,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130">
@@ -14684,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -14706,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133">
@@ -14717,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134">
@@ -14728,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135">
@@ -14739,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136">
@@ -14761,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>296</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138">
@@ -14772,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>56</v>
+        <v>296</v>
       </c>
     </row>
     <row r="139">
@@ -14898,98 +13970,98 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45357</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C150" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45357</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C151" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45357</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45357</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45364</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45364</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45364</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45364</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B158" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -14997,10 +14069,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -15008,10 +14080,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B160" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -15019,10 +14091,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -15030,10 +14102,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -15041,10 +14113,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -15052,10 +14124,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -15063,10 +14135,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -15074,7 +14146,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -15085,7 +14157,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -15096,10 +14168,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -15107,10 +14179,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -15118,10 +14190,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -15129,10 +14201,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -15140,10 +14212,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -15151,10 +14223,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -15162,10 +14234,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -15173,7 +14245,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -15184,7 +14256,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -15195,7 +14267,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -15206,10 +14278,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -15217,7 +14289,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -15228,7 +14300,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -15239,10 +14311,10 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B181" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -15250,10 +14322,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -15261,7 +14333,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -15272,7 +14344,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -15283,7 +14355,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -15294,7 +14366,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -15305,7 +14377,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -15316,7 +14388,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -15327,7 +14399,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -15338,7 +14410,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -15349,10 +14421,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -15360,89 +14432,12 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
-        <v>45627.99999999999</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
-        <v>45634.99999999999</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
-        <v>45641.99999999999</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
-        <v>45648.99999999999</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1</v>
-      </c>
-      <c r="C199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15489,10 +14484,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2776</v>
+        <v>2496</v>
       </c>
       <c r="B2" t="n">
-        <v>27.48514851485148</v>
+        <v>26.83870967741936</v>
       </c>
       <c r="C2" t="n">
         <v>296</v>
@@ -15529,7 +14524,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45.82019801980198</v>
+        <v>46.41795231416549</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1234,14 @@
         <v>45662.99999999999</v>
       </c>
       <c r="B99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12315,7 +12323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13745,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130">
@@ -13756,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
@@ -14438,6 +14446,17 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
+++ b/po forecast comparison/B083R7T5P4_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1242,6 +1242,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12323,7 +12331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13335,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -13368,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -13401,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
@@ -13412,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -14457,6 +14465,17 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
         <v>0</v>
       </c>
     </row>
